--- a/2018-19_CCSB_LoadsData_WY2010-2018/Model Stats_rloadest/1_wy2016_2017/1_SSC Model Results.xlsx
+++ b/2018-19_CCSB_LoadsData_WY2010-2018/Model Stats_rloadest/1_wy2016_2017/1_SSC Model Results.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018-19_CCSB_LoadsData_WY2010-2018\Model Stats_rloadest\1_wy2016_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52513BE-C266-48EA-8AC9-ABB708D59697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF13BEE3-F369-46FC-A0B7-D105677A80E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="477" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="477" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Model Results" sheetId="7" r:id="rId1"/>
     <sheet name="SSC wy2016-17 Model Results" sheetId="2" r:id="rId2"/>
-    <sheet name="Inlet" sheetId="3" r:id="rId3"/>
-    <sheet name="Spillway" sheetId="4" r:id="rId4"/>
-    <sheet name="Outlet" sheetId="5" r:id="rId5"/>
-    <sheet name="Combined Outlet" sheetId="9" r:id="rId6"/>
-    <sheet name="Rumsey" sheetId="11" r:id="rId7"/>
+    <sheet name="N_Abutment" sheetId="12" r:id="rId3"/>
+    <sheet name="S_Abutment" sheetId="13" r:id="rId4"/>
+    <sheet name="Inlet" sheetId="3" r:id="rId5"/>
+    <sheet name="Spillway" sheetId="4" r:id="rId6"/>
+    <sheet name="Outlet" sheetId="5" r:id="rId7"/>
+    <sheet name="Combined Outlet" sheetId="9" r:id="rId8"/>
+    <sheet name="Rumsey" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="1449">
   <si>
     <t>Model #</t>
   </si>
@@ -3212,6 +3214,1215 @@
   </si>
   <si>
     <t>x- one non-sig</t>
+  </si>
+  <si>
+    <t>N_Abutment SSC</t>
+  </si>
+  <si>
+    <t>S_Abutment SSC</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(1), data = SSC_NAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(2), data = SSC_NAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(3), data = SSC_NAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(4), data = SSC_NAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(5), data = SSC_NAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(6), data = SSC_NAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(7), data = SSC_NAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(8), data = SSC_NAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(9), data = SSC_NAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(1), data = SSC_SAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(2), data = SSC_SAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(3), data = SSC_SAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(4), data = SSC_SAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(5), data = SSC_SAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(6), data = SSC_SAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(7), data = SSC_SAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(8), data = SSC_SAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(9), data = SSC_SAbutment, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 22; Period of record: 2016-03-10 to 2017-04-04</t>
+  </si>
+  <si>
+    <t>PPCC             (p-value)</t>
+  </si>
+  <si>
+    <t>x- only choice</t>
+  </si>
+  <si>
+    <t>26.20, 27.72</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm1 &lt;- loadReg(SSC ~model(1), data = SSC_SAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(1), data = SSC_SAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 6.6641</t>
+  </si>
+  <si>
+    <t>(Intercept)   12.529     0.2369   52.89       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.437     0.1125   12.77       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8688</t>
+  </si>
+  <si>
+    <t>R-squared: 88.59 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 49.92 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.8929</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1523</t>
+  </si>
+  <si>
+    <t>Est 2910 1930000 3710000 16600000 22600000 24000000 25000000</t>
+  </si>
+  <si>
+    <t>Obs 3580  290000 2340000 16700000 24900000 32500000 47500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -7.84 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.75</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm2 &lt;- loadReg(SSC ~model(2), data = SSC_SAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(2), data = SSC_SAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm2</t>
+  </si>
+  <si>
+    <t>(Intercept)  11.9095    0.34925  34.101  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.4370    0.10291  13.963  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1399    0.06184   2.262  0.0221</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7264</t>
+  </si>
+  <si>
+    <t>R-squared: 90.91 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 55.16 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0136</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.476</t>
+  </si>
+  <si>
+    <t>Est 6660 1120000 2560000 20900000 33200000 36400000 38700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 14.96 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7768</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm3 &lt;- loadReg(SSC ~model(3), data = SSC_SAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(3), data = SSC_SAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm3</t>
+  </si>
+  <si>
+    <t>(Intercept)  12.5497     0.2434  51.563  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.4602     0.1213  12.033  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.2866     0.4992  -0.574  0.5398</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8975</t>
+  </si>
+  <si>
+    <t>R-squared: 88.77 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 50.3 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0031</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.106</t>
+  </si>
+  <si>
+    <t>lnQ     1.125</t>
+  </si>
+  <si>
+    <t>DECTIME 1.125</t>
+  </si>
+  <si>
+    <t>Est 2140 2190000 3600000 16100000 22300000 22800000 24700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -9.858 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7465</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm4 &lt;- loadReg(SSC ~model(4), data = SSC_SAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(4), data = SSC_SAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm4</t>
+  </si>
+  <si>
+    <t>(Intercept)   16.060     2.5131   6.390  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ            1.484     0.1329  11.164  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   -3.158     2.0220  -1.562  0.0956</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   -2.607     2.1298  -1.224  0.1864</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8214</t>
+  </si>
+  <si>
+    <t>R-squared: 90.24 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 53.51 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0011</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.0944</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 11.803</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.210</t>
+  </si>
+  <si>
+    <t>Est 3620 1580000 3100000 12800000 18000000 38700000 39900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.169 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.903</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm5 &lt;- loadReg(SSC ~model(5), data = SSC_SAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(5), data = SSC_SAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm5</t>
+  </si>
+  <si>
+    <t>(Intercept)  11.6949    0.33874  34.524  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.5171    0.10254  14.795  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.2042    0.06489   3.147  0.0019</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.9882    0.47131  -2.097  0.0287</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.6209</t>
+  </si>
+  <si>
+    <t>R-squared: 92.62 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 59.95 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2208</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.266</t>
+  </si>
+  <si>
+    <t>lnQ     1.161</t>
+  </si>
+  <si>
+    <t>lnQ2    1.288</t>
+  </si>
+  <si>
+    <t>DECTIME 1.450</t>
+  </si>
+  <si>
+    <t>Est 4450 1200000 2050000 20000000 36000000 36100000 43300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 14.5 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7942</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm6 &lt;- loadReg(SSC ~model(6), data = SSC_SAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(6), data = SSC_SAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm6</t>
+  </si>
+  <si>
+    <t>(Intercept)  15.0958    2.38539   6.328  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.4852    0.12354  12.022  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1242    0.06219   1.997  0.0319</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -2.7338    1.89156  -1.445  0.1120</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -2.3595    1.98363  -1.189  0.1871</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7098</t>
+  </si>
+  <si>
+    <t>R-squared: 92.01 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 58.12 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0109</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3991</t>
+  </si>
+  <si>
+    <t>lnQ2         1.035</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 11.953</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.262</t>
+  </si>
+  <si>
+    <t>Est 7560 1050000 2440000 17900000 23100000 50200000 54700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 17.64 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.827</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm7 &lt;- loadReg(SSC ~model(7), data = SSC_SAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(7), data = SSC_SAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  17.1952     2.5006   6.876  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.5515     0.1336  11.612  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.8623     0.5202  -1.657  0.0707</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -4.2445     2.0431  -2.077  0.0262</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -3.2656     2.0765  -1.573  0.0853</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7522</t>
+  </si>
+  <si>
+    <t>R-squared: 91.53 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 56.78 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1314</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.0984</t>
+  </si>
+  <si>
+    <t>lnQ          1.628</t>
+  </si>
+  <si>
+    <t>DECTIME      1.458</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 13.158</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.712</t>
+  </si>
+  <si>
+    <t>Est 1650 1580000 4200000  9600000 16700000 44900000 45000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -3.839 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8469</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm8 &lt;- loadReg(SSC ~model(8), data = SSC_SAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(8), data = SSC_SAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm8</t>
+  </si>
+  <si>
+    <t>(Intercept)   16.556    1.83063   9.044  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ            1.615    0.09868  16.367  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2           0.214    0.05217   4.103  0.0001</t>
+  </si>
+  <si>
+    <t>DECTIME       -1.638    0.42392  -3.863  0.0001</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   -4.491    1.49144  -3.011  0.0017</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   -3.431    1.51514  -2.265  0.0138</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4002</t>
+  </si>
+  <si>
+    <t>R-squared: 95.74 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 72.61 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6394</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.309</t>
+  </si>
+  <si>
+    <t>lnQ          1.669</t>
+  </si>
+  <si>
+    <t>lnQ2         1.292</t>
+  </si>
+  <si>
+    <t>DECTIME      1.820</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 13.179</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.722</t>
+  </si>
+  <si>
+    <t>Est 3640 630000 2780000 12100000 20800000 79100000 84600000</t>
+  </si>
+  <si>
+    <t>Obs 3580 290000 2340000 16700000 24900000 32500000 47500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 32.56 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: -0.09863</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm9 &lt;- loadReg(SSC ~model(9), data = SSC_SAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(9), data = SSC_SAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_SAbutmentm9</t>
+  </si>
+  <si>
+    <t>(Intercept)  16.1388    1.39112  11.601  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.3390    0.10574  12.663  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.2976    0.04553   6.535  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.9950    0.36522  -2.724  0.0031</t>
+  </si>
+  <si>
+    <t>DECTIME2    -12.2917    3.32890  -3.692  0.0002</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -1.5813    1.37734  -1.148  0.1772</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -1.7889    1.23078  -1.453  0.0912</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2296</t>
+  </si>
+  <si>
+    <t>R-squared: 97.7 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 86.79 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.9384</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.1464</t>
+  </si>
+  <si>
+    <t>lnQ          3.340</t>
+  </si>
+  <si>
+    <t>lnQ2         1.715</t>
+  </si>
+  <si>
+    <t>DECTIME      2.354</t>
+  </si>
+  <si>
+    <t>DECTIME2     4.029</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 19.593</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 15.784</t>
+  </si>
+  <si>
+    <t>Est 3670 653000 2420000 13100000 21300000 70600000 79700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 25.84 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.1698</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm1 &lt;- loadReg(SSC ~model(1), data = SSC_NAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(1), data = SSC_NAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 22</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 6.7527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Period of record: 2016-03-10 to 2017-04-04</t>
+  </si>
+  <si>
+    <t>(Intercept)   12.033     0.2599   46.30       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.485     0.1286   11.55       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8917</t>
+  </si>
+  <si>
+    <t>R-squared: 86.95 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 44.81 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4402</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Min     25%     50%     75%      90%      95%      Max</t>
+  </si>
+  <si>
+    <t>Est 1360 1370000 2260000 9850000 13200000 15000000 15400000</t>
+  </si>
+  <si>
+    <t>Obs  695  481000 1830000 5870000 12200000 20400000 24500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 5.54 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.4796</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm2 &lt;- loadReg(SSC ~model(2), data = SSC_NAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(2), data = SSC_NAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm2</t>
+  </si>
+  <si>
+    <t>(Intercept) 11.93631    0.39633 30.1173   0.000</t>
+  </si>
+  <si>
+    <t>lnQ          1.48453    0.13155 11.2848   0.000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.02364    0.07196  0.3286   0.724</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9333</t>
+  </si>
+  <si>
+    <t>R-squared: 87.03 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 44.93 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7047</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2706</t>
+  </si>
+  <si>
+    <t>Est 1430 1280000 2180000 10400000 14200000 16100000 16500000</t>
+  </si>
+  <si>
+    <t>Obs  695  481000 1830000  5870000 12200000 20400000 24500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 10.27 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.4576</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm3 &lt;- loadReg(SSC ~model(3), data = SSC_NAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(3), data = SSC_NAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm3</t>
+  </si>
+  <si>
+    <t>(Intercept)  12.1122     0.2643  45.821   0.000</t>
+  </si>
+  <si>
+    <t>lnQ           1.5157     0.1294  11.716   0.000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.6316     0.5097  -1.239   0.191</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8684</t>
+  </si>
+  <si>
+    <t>R-squared: 87.93 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 46.52 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7828</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1477</t>
+  </si>
+  <si>
+    <t>lnQ     1.039</t>
+  </si>
+  <si>
+    <t>DECTIME 1.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min     25%     50%     75%      90%      95%      Max</t>
+  </si>
+  <si>
+    <t>Est 854 1400000 2190000 8770000 12200000 12800000 14200000</t>
+  </si>
+  <si>
+    <t>Obs 695  481000 1830000 5870000 12200000 20400000 24500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -3.309 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.4995</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm4 &lt;- loadReg(SSC ~model(4), data = SSC_NAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(4), data = SSC_NAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm4</t>
+  </si>
+  <si>
+    <t>(Intercept)   14.685     2.9830  4.9230   0.000</t>
+  </si>
+  <si>
+    <t>lnQ            1.516     0.1903  7.9659   0.000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   -2.475     2.3791 -1.0405   0.257</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   -1.870     2.6530 -0.7048   0.439</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8812</t>
+  </si>
+  <si>
+    <t>R-squared: 88.4 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 47.38 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7185</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.0999</t>
+  </si>
+  <si>
+    <t>lnQ          2.217</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 15.010</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 18.632</t>
+  </si>
+  <si>
+    <t>Est 1500 1040000 2500000 8630000 10700000 20600000 22800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 11.35 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.5485</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm5 &lt;- loadReg(SSC ~model(5), data = SSC_NAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(5), data = SSC_NAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm5</t>
+  </si>
+  <si>
+    <t>(Intercept)  11.7325    0.39314  29.843  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.5376    0.12832  11.983  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1066    0.08282   1.287  0.1640</t>
+  </si>
+  <si>
+    <t>DECTIME      -1.0751    0.60817  -1.768  0.0606</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8394</t>
+  </si>
+  <si>
+    <t>R-squared: 88.95 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 48.45 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7943</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1811</t>
+  </si>
+  <si>
+    <t>lnQ     1.058</t>
+  </si>
+  <si>
+    <t>lnQ2    1.473</t>
+  </si>
+  <si>
+    <t>DECTIME 1.531</t>
+  </si>
+  <si>
+    <t>Est 1310 1160000 2050000 9920000 15500000 16300000 18900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 9.614 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.4399</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm6 &lt;- loadReg(SSC ~model(6), data = SSC_NAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(6), data = SSC_NAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Estimate Std. Error  z-score p-value</t>
+  </si>
+  <si>
+    <t>(Intercept) 14.6904738    3.19653  4.59576  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.5162766    0.19638  7.72111  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.0004245    0.07408 -0.00573  0.9948</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -2.4782937    2.50184 -0.99059  0.2665</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -1.8723812    2.76820 -0.67639  0.4447</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9331</t>
+  </si>
+  <si>
+    <t>G-squared: 47.38 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7164</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.099</t>
+  </si>
+  <si>
+    <t>lnQ          2.229</t>
+  </si>
+  <si>
+    <t>lnQ2         1.060</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 15.677</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 19.159</t>
+  </si>
+  <si>
+    <t>Est 1330 1040000 2530000 8530000 10900000 20800000 22900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 11.71 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.5494</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm7 &lt;- loadReg(SSC ~model(7), data = SSC_NAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(7), data = SSC_NAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm7</t>
+  </si>
+  <si>
+    <t>(Intercept)   15.058     2.5645  5.8717  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ            1.490     0.1637  9.1021  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME       -1.457     0.5346 -2.7249  0.0047</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   -3.120     2.0560 -1.5175  0.0946</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   -1.407     2.2838 -0.6159  0.4860</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.6494</t>
+  </si>
+  <si>
+    <t>R-squared: 91.92 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 55.36 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7543</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.2496</t>
+  </si>
+  <si>
+    <t>lnQ          2.225</t>
+  </si>
+  <si>
+    <t>DECTIME      1.529</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 15.212</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 18.736</t>
+  </si>
+  <si>
+    <t>Est 449 1130000 2760000 5310000  9060000 21500000 22900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.396 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.5345</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm8 &lt;- loadReg(SSC ~model(8), data = SSC_NAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(8), data = SSC_NAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Estimate Std. Error  z-score p-value</t>
+  </si>
+  <si>
+    <t>(Intercept)  13.3830    2.41899  5.53246  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.4449    0.14829  9.74369  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1562    0.06924  2.25655  0.0137</t>
+  </si>
+  <si>
+    <t>DECTIME      -2.2652    0.59893 -3.78207  0.0002</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -2.3892    1.87399 -1.27494  0.1446</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.1810    2.12103 -0.08536  0.9203</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.5234</t>
+  </si>
+  <si>
+    <t>R-squared: 93.87 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 61.43 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0804</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.3466</t>
+  </si>
+  <si>
+    <t>lnQ          2.266</t>
+  </si>
+  <si>
+    <t>lnQ2         1.651</t>
+  </si>
+  <si>
+    <t>DECTIME      2.381</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 15.680</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 20.050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min    25%     50%     75%      90%      95%      Max</t>
+  </si>
+  <si>
+    <t>Est 704 899000 2250000 6480000 10700000 28600000 33200000</t>
+  </si>
+  <si>
+    <t>Obs 695 481000 1830000 5870000 12200000 20400000 24500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 15.93 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.1749</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm9 &lt;- loadReg(SSC ~model(9), data = SSC_NAbutment, flow="Flow", dates = "Dates" ,conc.units="mg/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(SSC ~ model(9), data = SSC_NAbutment, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; SSC_NAbutmentm9</t>
+  </si>
+  <si>
+    <t>(Intercept)   8.9041    6.30805  1.4115  0.0976</t>
+  </si>
+  <si>
+    <t>lnQ           1.5259    0.18332  8.3235  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1304    0.07773  1.6780  0.0517</t>
+  </si>
+  <si>
+    <t>DECTIME      -4.4418    2.88918 -1.5374  0.0728</t>
+  </si>
+  <si>
+    <t>DECTIME2     24.2331   31.44952  0.7705  0.3554</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -4.7466    3.60049 -1.3183  0.1204</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   2.1642    3.72552  0.5809  0.4842</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.5371</t>
+  </si>
+  <si>
+    <t>R-squared: 94.11 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 62.29 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1158</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.3821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                VIF</t>
+  </si>
+  <si>
+    <t>lnQ           3.375</t>
+  </si>
+  <si>
+    <t>lnQ2          2.028</t>
+  </si>
+  <si>
+    <t>DECTIME      53.993</t>
+  </si>
+  <si>
+    <t>DECTIME2    118.215</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  56.411</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  60.289</t>
+  </si>
+  <si>
+    <t>Est 703 610000 2440000 6000000 10900000 29900000 34400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 17.93 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.09864</t>
+  </si>
+  <si>
+    <t>24.76, 26.89</t>
+  </si>
+  <si>
+    <t>x - cnalpers</t>
   </si>
 </sst>
 </file>
@@ -3506,7 +4717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3659,16 +4870,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3689,10 +4897,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3720,7 +4940,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4402,17 +5762,17 @@
     </row>
     <row r="3" spans="1:34" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
       <c r="Y4" s="17" t="s">
         <v>253</v>
       </c>
@@ -4427,19 +5787,19 @@
       <c r="AH4" s="17"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="61"/>
+      <c r="L5" s="67"/>
       <c r="Y5" s="17" t="s">
         <v>254</v>
       </c>
@@ -4714,17 +6074,17 @@
       <c r="Y15" s="5"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -4737,19 +6097,19 @@
       <c r="AH17" s="9"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="61"/>
+      <c r="L18" s="67"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -5021,32 +6381,32 @@
       <c r="Y28" s="5"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="61" t="s">
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="61"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="1:34" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
@@ -5318,32 +6678,32 @@
       <c r="AA42" s="23"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="64"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="61" t="s">
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="61"/>
+      <c r="L44" s="67"/>
     </row>
     <row r="45" spans="1:27" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
@@ -5606,32 +6966,32 @@
       <c r="AA54" s="23"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="64"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="63"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B57" s="58"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="61" t="s">
+      <c r="B57" s="70"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="L57" s="61"/>
+      <c r="L57" s="67"/>
     </row>
     <row r="58" spans="1:27" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
@@ -5862,32 +7222,32 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="C70" s="63"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="64"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="63"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B71" s="58"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="61" t="s">
+      <c r="B71" s="70"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="L71" s="61"/>
+      <c r="L71" s="67"/>
     </row>
     <row r="72" spans="1:14" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
@@ -6119,6 +7479,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B70:J70"/>
+    <mergeCell ref="B71:J71"/>
+    <mergeCell ref="K71:L71"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="K44:L44"/>
@@ -6133,71 +7498,66 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B70:J70"/>
-    <mergeCell ref="B71:J71"/>
-    <mergeCell ref="K71:L71"/>
   </mergeCells>
   <conditionalFormatting sqref="L20:L28 L73:L81 L46:L54 L33:L41 L103:L1048576">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:L67">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K28 K46:K54 K73:K1048576 K33:K42 K59:K70 K30">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74 D75 C77:C78 D77 C80:C81 D79:D81 E81 F76:G76 F78:G81 C60 D61 C63:C64 D63 C66:C67 D65:D67 E67 F62:G62 F64:G67">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L15">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K15">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47 D48 C50:C51 D50 C53:C54 D52:D54 E54 F49:G49 F51:G54 C34 D35 C37:C38 D37 C40:C41 D39:D41 E41 F36:G36 F38:G41 C21 D22 C24:C25 D24 C27:C28 D26:D28 E28 F23:G23 F25:G28 C8 D9 C11:C12 D11 C14:C15 D13:D15 E15 F10:G10 F12:G15">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6210,11 +7570,11 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:AL70"/>
+  <dimension ref="A1:AL96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="4" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P95" sqref="P95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6236,24 +7596,24 @@
       <c r="A1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="73" t="s">
         <v>1025</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74" t="s">
         <v>1026</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="70" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="70"/>
+      <c r="M1" s="73"/>
       <c r="R1" s="37"/>
       <c r="S1" s="37"/>
       <c r="T1" s="24"/>
@@ -6424,18 +7784,18 @@
       <c r="AL5" s="17"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
       <c r="AC6" s="17" t="s">
         <v>254</v>
       </c>
@@ -6451,22 +7811,22 @@
     </row>
     <row r="7" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="61"/>
+      <c r="M7" s="67"/>
       <c r="N7"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
@@ -7003,37 +8363,37 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61" t="s">
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="61"/>
+      <c r="M20" s="67"/>
       <c r="N20"/>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -7595,37 +8955,37 @@
       <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="64" t="s">
         <v>641</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="61" t="s">
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M33" s="61"/>
+      <c r="M33" s="67"/>
       <c r="N33"/>
       <c r="O33" s="37"/>
       <c r="P33" s="37"/>
@@ -8172,37 +9532,37 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="64"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="63"/>
     </row>
     <row r="46" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="70" t="s">
         <v>835</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="61" t="s">
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M46" s="61"/>
+      <c r="M46" s="67"/>
       <c r="N46"/>
       <c r="O46" s="37"/>
       <c r="P46" s="37"/>
@@ -8748,37 +10108,37 @@
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="76"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="79"/>
     </row>
     <row r="60" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="70" t="s">
         <v>869</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="61" t="s">
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M60" s="61"/>
+      <c r="M60" s="67"/>
       <c r="N60"/>
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
@@ -9323,8 +10683,1272 @@
         <v>867</v>
       </c>
     </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72" s="58"/>
+      <c r="B72" s="77" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="58"/>
+      <c r="R72" s="58"/>
+    </row>
+    <row r="73" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="58"/>
+      <c r="B73" s="70" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73" s="67"/>
+      <c r="N73"/>
+      <c r="O73" s="58"/>
+      <c r="P73" s="58"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="58"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+    </row>
+    <row r="74" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" s="45" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N74" s="34" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O74" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="34" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q74" s="52" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
+      <c r="AD74" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
+        <v>1</v>
+      </c>
+      <c r="B75" s="15">
+        <v>0</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="15">
+        <v>86.95</v>
+      </c>
+      <c r="J75" s="15">
+        <v>0.44019999999999998</v>
+      </c>
+      <c r="K75" s="15">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="L75" s="15">
+        <v>5.54</v>
+      </c>
+      <c r="M75" s="58">
+        <v>0.47960000000000003</v>
+      </c>
+      <c r="N75" s="55">
+        <v>1</v>
+      </c>
+      <c r="O75" s="55" t="s">
+        <v>1068</v>
+      </c>
+      <c r="P75" s="55" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q75" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="R75" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T75" s="22" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AD75" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="58">
+        <v>2</v>
+      </c>
+      <c r="B76" s="24">
+        <v>0</v>
+      </c>
+      <c r="C76" s="30">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="58">
+        <v>87.03</v>
+      </c>
+      <c r="J76" s="58">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="K76" s="58">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="L76" s="58">
+        <v>10.27</v>
+      </c>
+      <c r="M76" s="58">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="N76" s="58">
+        <v>2</v>
+      </c>
+      <c r="O76" s="54"/>
+      <c r="P76" s="54"/>
+      <c r="Q76" s="53"/>
+      <c r="R76" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T76" s="22" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AD76" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="24">
+        <v>3</v>
+      </c>
+      <c r="B77" s="24">
+        <v>0</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="25">
+        <v>0.191</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="24">
+        <v>87.93</v>
+      </c>
+      <c r="J77" s="58">
+        <v>0.78280000000000005</v>
+      </c>
+      <c r="K77" s="24">
+        <v>0.1477</v>
+      </c>
+      <c r="L77" s="24">
+        <v>-3.3090000000000002</v>
+      </c>
+      <c r="M77" s="58">
+        <v>0.4995</v>
+      </c>
+      <c r="N77" s="53">
+        <v>3</v>
+      </c>
+      <c r="O77" s="53"/>
+      <c r="P77" s="53"/>
+      <c r="Q77" s="53"/>
+      <c r="R77" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T77" s="22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AD77" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="58">
+        <v>4</v>
+      </c>
+      <c r="B78" s="24">
+        <v>0</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="24">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G78" s="58">
+        <v>0.439</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="58">
+        <v>88.4</v>
+      </c>
+      <c r="J78" s="58">
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="K78" s="58">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="L78" s="58">
+        <v>11.35</v>
+      </c>
+      <c r="M78" s="58">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="N78" s="53">
+        <v>4</v>
+      </c>
+      <c r="O78" s="58"/>
+      <c r="P78" s="58"/>
+      <c r="R78" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T78" s="22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AD78" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="58">
+        <v>5</v>
+      </c>
+      <c r="B79" s="24">
+        <v>0</v>
+      </c>
+      <c r="C79" s="58">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D79" s="58">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="58">
+        <v>88.95</v>
+      </c>
+      <c r="J79" s="58">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="K79" s="58">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="L79" s="58">
+        <v>9.6140000000000008</v>
+      </c>
+      <c r="M79" s="58">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="N79" s="53">
+        <v>5</v>
+      </c>
+      <c r="O79" s="58"/>
+      <c r="P79" s="58"/>
+      <c r="R79" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T79" s="22" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AD79" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="58">
+        <v>6</v>
+      </c>
+      <c r="B80" s="24">
+        <v>0</v>
+      </c>
+      <c r="C80" s="58">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="24">
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="G80" s="58">
+        <v>0.44469999999999998</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="58">
+        <v>88.4</v>
+      </c>
+      <c r="J80" s="58">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="K80" s="58">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L80" s="58">
+        <v>11.71</v>
+      </c>
+      <c r="M80" s="58">
+        <v>0.5494</v>
+      </c>
+      <c r="N80" s="53">
+        <v>6</v>
+      </c>
+      <c r="O80" s="58"/>
+      <c r="P80" s="58"/>
+      <c r="R80" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T80" s="22" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AD80" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="58">
+        <v>7</v>
+      </c>
+      <c r="B81" s="24">
+        <v>0</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="24">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="24">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="G81" s="58">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="58">
+        <v>91.92</v>
+      </c>
+      <c r="J81" s="58">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="K81" s="58">
+        <v>-0.24959999999999999</v>
+      </c>
+      <c r="L81" s="58">
+        <v>-2.3959999999999999</v>
+      </c>
+      <c r="M81" s="58">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="N81" s="53">
+        <v>7</v>
+      </c>
+      <c r="O81" s="58"/>
+      <c r="P81" s="58"/>
+      <c r="R81" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T81" s="22" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD81" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="58">
+        <v>8</v>
+      </c>
+      <c r="B82" s="24">
+        <v>0</v>
+      </c>
+      <c r="C82" s="58">
+        <v>1.37E-2</v>
+      </c>
+      <c r="D82" s="24">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="24">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="G82" s="24">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="58">
+        <v>93.87</v>
+      </c>
+      <c r="J82" s="58">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="K82" s="58">
+        <v>-0.34660000000000002</v>
+      </c>
+      <c r="L82" s="58">
+        <v>15.93</v>
+      </c>
+      <c r="M82" s="58">
+        <v>0.1749</v>
+      </c>
+      <c r="N82" s="53">
+        <v>8</v>
+      </c>
+      <c r="O82" s="58"/>
+      <c r="P82" s="58"/>
+      <c r="R82" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T82" s="22" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AD82" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="58">
+        <v>9</v>
+      </c>
+      <c r="B83" s="24">
+        <v>0</v>
+      </c>
+      <c r="C83" s="58">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="D83" s="24">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="E83" s="24">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="F83" s="24">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="G83" s="24">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="58">
+        <v>94.11</v>
+      </c>
+      <c r="J83" s="24">
+        <v>0.1158</v>
+      </c>
+      <c r="K83" s="58">
+        <v>-0.3821</v>
+      </c>
+      <c r="L83" s="58">
+        <v>17.93</v>
+      </c>
+      <c r="M83" s="58">
+        <v>9.8640000000000005E-2</v>
+      </c>
+      <c r="N83" s="53">
+        <v>9</v>
+      </c>
+      <c r="O83" s="58"/>
+      <c r="P83" s="58"/>
+      <c r="R83" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T83" s="22" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A85" s="58"/>
+      <c r="B85" s="77" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="58"/>
+      <c r="M85" s="58"/>
+      <c r="O85" s="58"/>
+      <c r="P85" s="58"/>
+      <c r="R85" s="58"/>
+    </row>
+    <row r="86" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="58"/>
+      <c r="B86" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="72"/>
+      <c r="L86" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="M86" s="67"/>
+      <c r="N86"/>
+      <c r="O86" s="58"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="58"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+      <c r="AC86" s="10"/>
+    </row>
+    <row r="87" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J87" s="45" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N87" s="34" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O87" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P87" s="34" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q87" s="52" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R87" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S87" s="14"/>
+      <c r="T87" s="14"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="14"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="14"/>
+      <c r="Y87" s="14"/>
+      <c r="Z87" s="14"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="14"/>
+      <c r="AC87" s="14"/>
+      <c r="AD87" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="15">
+        <v>1</v>
+      </c>
+      <c r="B88" s="15">
+        <v>0</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="15">
+        <v>88.59</v>
+      </c>
+      <c r="J88" s="26">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K88" s="15">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="L88" s="15">
+        <v>-7.84</v>
+      </c>
+      <c r="M88" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="N88" s="55">
+        <v>1</v>
+      </c>
+      <c r="O88" s="55" t="s">
+        <v>1448</v>
+      </c>
+      <c r="P88" s="55" t="s">
+        <v>1447</v>
+      </c>
+      <c r="Q88" s="55"/>
+      <c r="R88" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T88" s="22" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AD88" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="58">
+        <v>2</v>
+      </c>
+      <c r="B89" s="24">
+        <v>0</v>
+      </c>
+      <c r="C89" s="30">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="59">
+        <v>90.91</v>
+      </c>
+      <c r="J89" s="59">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="K89" s="59">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="L89" s="59">
+        <v>14.96</v>
+      </c>
+      <c r="M89" s="59">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="N89" s="58">
+        <v>2</v>
+      </c>
+      <c r="O89" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="54"/>
+      <c r="Q89" s="53"/>
+      <c r="R89" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T89" s="22" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AD89" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="24">
+        <v>3</v>
+      </c>
+      <c r="B90" s="24">
+        <v>0</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="25">
+        <v>0.53979999999999995</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="24">
+        <v>88.77</v>
+      </c>
+      <c r="J90" s="59">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="K90" s="24">
+        <v>0.106</v>
+      </c>
+      <c r="L90" s="24">
+        <v>-9.8580000000000005</v>
+      </c>
+      <c r="M90" s="59">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="N90" s="53">
+        <v>3</v>
+      </c>
+      <c r="O90" s="53"/>
+      <c r="P90" s="53"/>
+      <c r="Q90" s="53"/>
+      <c r="R90" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T90" s="22" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AD90" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="58">
+        <v>4</v>
+      </c>
+      <c r="B91" s="24">
+        <v>0</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="24">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="G91" s="59">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="59">
+        <v>90.24</v>
+      </c>
+      <c r="J91" s="59">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="K91" s="59">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="L91" s="59">
+        <v>-2.169</v>
+      </c>
+      <c r="M91" s="59">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="N91" s="53">
+        <v>4</v>
+      </c>
+      <c r="O91" s="58"/>
+      <c r="P91" s="58"/>
+      <c r="R91" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T91" s="22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AD91" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="58">
+        <v>5</v>
+      </c>
+      <c r="B92" s="24">
+        <v>0</v>
+      </c>
+      <c r="C92" s="59">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D92" s="59">
+        <v>2.87E-2</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="59">
+        <v>92.62</v>
+      </c>
+      <c r="J92" s="59">
+        <v>0.2208</v>
+      </c>
+      <c r="K92" s="59">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="L92" s="59">
+        <v>14.5</v>
+      </c>
+      <c r="M92" s="59">
+        <v>0.79420000000000002</v>
+      </c>
+      <c r="N92" s="53">
+        <v>5</v>
+      </c>
+      <c r="O92" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="P92" s="58"/>
+      <c r="R92" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T92" s="22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AD92" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="58">
+        <v>6</v>
+      </c>
+      <c r="B93" s="24">
+        <v>0</v>
+      </c>
+      <c r="C93" s="59">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="24">
+        <v>0.112</v>
+      </c>
+      <c r="G93" s="59">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="59">
+        <v>92.01</v>
+      </c>
+      <c r="J93" s="59">
+        <v>1.09E-2</v>
+      </c>
+      <c r="K93" s="59">
+        <v>0.39910000000000001</v>
+      </c>
+      <c r="L93" s="59">
+        <v>17.64</v>
+      </c>
+      <c r="M93" s="59">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="N93" s="53">
+        <v>6</v>
+      </c>
+      <c r="O93" s="58"/>
+      <c r="P93" s="58"/>
+      <c r="R93" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T93" s="22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AD93" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="58">
+        <v>7</v>
+      </c>
+      <c r="B94" s="24">
+        <v>0</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="24">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="24">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="G94" s="59">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="59">
+        <v>91.53</v>
+      </c>
+      <c r="J94" s="59">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="K94" s="59">
+        <v>-9.8400000000000001E-2</v>
+      </c>
+      <c r="L94" s="59">
+        <v>-3.839</v>
+      </c>
+      <c r="M94" s="59">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="N94" s="53">
+        <v>7</v>
+      </c>
+      <c r="O94" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="58"/>
+      <c r="R94" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T94" s="22" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AD94" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="58">
+        <v>8</v>
+      </c>
+      <c r="B95" s="24">
+        <v>0</v>
+      </c>
+      <c r="C95" s="59">
+        <v>1E-4</v>
+      </c>
+      <c r="D95" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="24">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G95" s="24">
+        <v>1.38E-2</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="59">
+        <v>95.74</v>
+      </c>
+      <c r="J95" s="59">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="K95" s="59">
+        <v>-0.309</v>
+      </c>
+      <c r="L95" s="59">
+        <v>32.56</v>
+      </c>
+      <c r="M95" s="59">
+        <v>-9.8629999999999995E-2</v>
+      </c>
+      <c r="N95" s="53">
+        <v>8</v>
+      </c>
+      <c r="O95" s="58"/>
+      <c r="P95" s="58"/>
+      <c r="R95" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T95" s="22" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AD95" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="58">
+        <v>9</v>
+      </c>
+      <c r="B96" s="24">
+        <v>0</v>
+      </c>
+      <c r="C96" s="59">
+        <v>0</v>
+      </c>
+      <c r="D96" s="24">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E96" s="24">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F96" s="24">
+        <v>0.1772</v>
+      </c>
+      <c r="G96" s="24">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="59">
+        <v>97.7</v>
+      </c>
+      <c r="J96" s="24">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="K96" s="59">
+        <v>-0.1464</v>
+      </c>
+      <c r="L96" s="59">
+        <v>25.84</v>
+      </c>
+      <c r="M96" s="59">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="N96" s="53">
+        <v>9</v>
+      </c>
+      <c r="O96" s="58"/>
+      <c r="P96" s="58"/>
+      <c r="R96" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T96" s="22" t="s">
+        <v>1065</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
+    <mergeCell ref="B85:K85"/>
+    <mergeCell ref="B86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B72:K72"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="L73:M73"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L20:M20"/>
@@ -9341,71 +11965,5067 @@
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B45:K45"/>
     <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B20:K20"/>
   </mergeCells>
-  <conditionalFormatting sqref="M9:M17 M62:M70 M35:M43 M22:M30 M80:M1048576">
-    <cfRule type="cellIs" dxfId="12" priority="29" operator="between">
+  <conditionalFormatting sqref="M9:M17 M62:M70 M35:M43 M22:M30 M84 M97:M1048576">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="44" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="45" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L17 L35:L43 L22:L31 L57:L59 L19 L62:L1048576">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="L9:L17 L35:L43 L22:L31 L57:L59 L19 L62:L71 L84 L97:L1048576">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63 D64 C66:C67 D66 C69:C70 D68:D70 E70 F65:G65 F67:G70">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B17 C10 D11 C13:C14 D13 D15:D17 C16:C17 E17 F12:G12 F14:G17 B22:B30 C23 D24 D26 C26:C27 D28 C29:D30 F25:G25 F27:G30 E30 B35:B43 C36 D37 C39:C40 D39 C42:C43 D41:D42 D43:E43 F38:G38 F40:G43">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M48:M56">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:L56">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49 D50 C52:C53 D52 C55:C56 D54:D56 E56 F51:G51 F53:G56">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M75:M83">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72 L75:L83">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76 D77 C79:C80 D79 C82:C83 D81:D83 E83 F78:G78 F80:G83">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M88:M96">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L85 L88:L96">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89 D90 C92:C93 D92 C95:C96 D94:D96 E96 F91:G91 F93:G96">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:J83">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88:J96">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F8DF46-2A6C-4EE2-A145-AD06ED2CDA13}">
+  <dimension ref="A1:A528"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="4" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="4" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="2"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="4" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="2"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="2"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="2"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="2"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="2"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="2"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="2"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="2"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="2"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="2"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="4" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="5" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="4" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="2"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="2"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="2"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="2"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="2"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="2"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="2"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="2"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="2"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="3" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="3" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="6"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="6"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="7"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060CE2E-7D9F-472D-87E5-6F3E61EAB590}">
+  <dimension ref="A1:A528"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="2"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="2"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="2"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="2"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="2"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="2"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="2"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="2"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="2"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="2"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="2"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="5" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="4" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="2"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="2"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="2"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="2"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="2"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="2"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="2"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="2"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="2"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="3" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="6"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="6"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="7"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4474EE3C-039E-4B06-8170-240C1C83195F}">
   <dimension ref="A1:A523"/>
   <sheetViews>
@@ -11850,7 +19470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1D46C6-B673-4030-A990-D47159973B4A}">
   <dimension ref="A1:A529"/>
   <sheetViews>
@@ -14324,7 +21944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D895790-9388-4694-8E03-2CB4C50841B1}">
   <dimension ref="A7:A534"/>
   <sheetViews>
@@ -16794,7 +24414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CDD631-E1CF-4B20-90E7-7B13F37D5249}">
   <dimension ref="A1:A528"/>
   <sheetViews>
@@ -19263,7 +26883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E8AF8A-57AE-410B-B8A5-FB53076D94EC}">
   <dimension ref="A1:A528"/>
   <sheetViews>
